--- a/PRESENTLOG/TOR/เปรียบเทียบWiFi.xlsx
+++ b/PRESENTLOG/TOR/เปรียบเทียบWiFi.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mimi\Documents\งานพี่กอบ\Job_doccuments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,46 +20,271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">รายละเอียดคุณลักษณะเฉพาะอุปกรณ์ Access Point </t>
-  </si>
-  <si>
-    <t>เป็นอุปกรณ์ Access Point แบบภายใน Indoor Access Point ใช้ได้ดีในย่านความถี่ 2.4GHz และ 5GHz เป็นอย่างน้อย</t>
-  </si>
-  <si>
-    <t>มี</t>
-  </si>
-  <si>
-    <t>ไม่มี</t>
-  </si>
-  <si>
-    <t>บริษัท</t>
-  </si>
-  <si>
-    <t>กระทรวง</t>
-  </si>
-  <si>
-    <t>ให้การสนับสนุนอุปกรณ์ไคลเอนต์ไร้สายที่อยู่บนมาตรฐาน IEEE802.11a, IEEE802.11b,  IEEE802.11g, IEEE802.11n และ IEEE802.11ac เป็นอย่างน้อย</t>
-  </si>
-  <si>
-    <t>ดีกว่า</t>
-  </si>
-  <si>
-    <t>รองรับความถี่ในการเชื่อมต่อที่ 1,300 Mbs (3x3MIMO) ที่ 5GHz และ 300 Mbs(2x2MIMO) ที่ 2.4GHz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+  <si>
+    <t>เปรียบเทียบคุณลักษณะผลิตภัณฑ์ WiFi</t>
+  </si>
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>เป็นอุปกรณ์ Access Point แบบภายใน (Indoor Access Point) ใช้ได้ดีในย่านความถี่ 2.4 GHz และ 5 GHz เป็นอย่างน้อย</t>
+  </si>
+  <si>
+    <t>มีความสามารถในการทำ MU-MIMO</t>
+  </si>
+  <si>
+    <t>อุปกรณ์ต้องมีความสามารถในการทำ auto-sensing link speed และ MDI/MDX</t>
+  </si>
+  <si>
+    <t>มีพอร์ต USB2.0 อย่างน้อย 1 พอร์ต</t>
+  </si>
+  <si>
+    <t>รองรับ client associated ได้ไม่น้อยกว่า 255 devices ต่อ 1 radio</t>
+  </si>
+  <si>
+    <t>รองรับการบริหารจัดการ การตั้งค่าของอุปกรณ์ Access Point, data encryption, policy enforcement โดยผ่านอุปกรณ์ควบคุมจากศูนย์กลาง</t>
+  </si>
+  <si>
+    <t>สามารถนำมาทำเป็น Air Monitor (AM) เพื่อการทำ Wireless IDS, Rogue detection, และ containment ได้</t>
+  </si>
+  <si>
+    <t>สามารถนำมาทำเป็น Remote AP (RAP) สำหรับการใช้งานที่สาขาได้</t>
+  </si>
+  <si>
+    <t>รองรับการ (หรือ สามารถ) ทำ Spectrum Analyzer เพื่อ identify source ของ RF interference ***RFP license บน Controller***</t>
+  </si>
+  <si>
+    <t>รองรับการทำ Dynamic Frequency Selection (DFS)</t>
+  </si>
+  <si>
+    <t>เสาอากาศจะต้องเป็นแบบ integrated downtilt omni-directional antenna มีความแรง (Gain) ไม่น้อยกว่า 3.9 dBi ที่ช่วงคลื่นความถี่ 2.4 GHz และ 5.4 dBi ที่ช่วงคลื่นความถี่ 5 GHz</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องรองรับเทคโนโลยีดังต่อไปนี้</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องรองรับ Modulation Type ดังนี้</t>
+  </si>
+  <si>
+    <t>สามารถตรวจสอบสถานะผ่าน Console interface ได้</t>
+  </si>
+  <si>
+    <t>มี Advanced Cellular Coexistence (ACC) เพื่อลด interference ที่มาจาก cellular networks</t>
+  </si>
+  <si>
+    <t>รองรับ Cyclic delay/shift diversity (CDD/CSD) เพื่อทำการปรับปรุง downlink RF performance</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องมีความสามารถในการทำ Transmit beam-forming (TxBF)</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องมีคลื่น Bluetooth Low Energy (BLE) เพื่อรองรับการทำ Location based service</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องรองรับ direct DC power</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องรองรับการใช้งาน (operating temperature) ที่อุณหภูมิ 0 – 50 องศาเซลเซียส</t>
+  </si>
+  <si>
+    <t>ต้องผ่านมาตรฐาน CE Marked, UL/IEC/EN 60950, และ FCC เป็นอย่างน้อย</t>
+  </si>
+  <si>
+    <t>ต้องได้รับ Wi-Fi Alliance (WFA) certified 802.11a/b/g/n/ac</t>
+  </si>
+  <si>
+    <t>มี LED แบบ multi-color สำหรับ system และ radio status</t>
+  </si>
+  <si>
+    <t>สามารถรองรับการทำงานรูปแบบ Standalone AP และ Controller-based AP ได้</t>
+  </si>
+  <si>
+    <t>ให้การสนับสนุนอุปกรณ์ไคลเอนต์ไร้สายที่อยู่บนมาตรฐาน IEEE 802.11ac ,IEEE 802.11b/g/n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รองรับความเร็วในการเชื่อมต่อที่ 1,300 Mbps (3x3 MIMO) ที่ 5 GHz และ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mbps (2x2 MIMO) ที่ 2.4 GHz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สามารถรองรับ DataRate ได้ 1300 Mbs มาตรฐาน IEEE802.11ac  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mbs มาตรฐาน 802.11n หรือแบบ 3x3:3 stream หรือดีกว่า</t>
+    </r>
+  </si>
+  <si>
+    <t>มีพอร์ต 10/100/1000 Base-T Ethernet ที่รองรับมาตรฐาน IEEE802.3at (PoE) เพื่อเชื่อมต่อกับเครือข่ายอย่างน้อย 1 พอร์ต</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>มีพอร์ต 10/100/1000 และเป็นพอร์ต Auto MDX</t>
+  </si>
+  <si>
+    <t>อุปกรณ์จะต้องรองรับการใช้งาน (operating temperature) ที่อุณหภูมิ 0 – 40 องศาเซลเซียส</t>
+  </si>
+  <si>
+    <t>รองรับ client 500 ต่อ AP เมื่อมีการประชุมและใช้อินเตอร์พร้อม ๆ กัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a. 802.11b: Direct-Sequence Spread-Spectrum (DSSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b. 802.11a/g/n/ac: Orthogonal Frequency Division Multiplexing (OFDM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a. 802.11b: BPSK, QPSK, CCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b. 802.11a/g/n/ac: BPSK, QPSK, 16-QAM, 64-QAM, 256-QAM</t>
+  </si>
+  <si>
+    <t>เสาอากาศภายในเป็น Dual polarized antenna แบบ vertical และ Horizontal polarization เพื่อให้รองรับสัญญาณได้อย่างมีประสิทธิภาพ</t>
+  </si>
+  <si>
+    <t>มีไฟแสดงสถานะการทำงาน Power การติดต่อกับ Controller และ RF เป็นอย่างน้อย</t>
+  </si>
+  <si>
+    <t>รองรับการใช้งานของ Client ในรูปแบบ Beamforming เพื่อรองรับอุปกรณ์รุ่นใหม่</t>
+  </si>
+  <si>
+    <t>รองรับการกำหนดค่าอุปกรณ์ Web based Management แบบ Https, CLI แบบ SSH และ SNMP v1,v2,v3</t>
+  </si>
+  <si>
+    <t>มาตรฐานกลาง</t>
+  </si>
+  <si>
+    <t>รองรับมาตรฐาน IEEE 802.11ac และ 802.11b/g/n รองรับการใช้งานแบบ Dual Band ทั้ง 2.4GHz และ 5GHz</t>
+  </si>
+  <si>
+    <t>รองรับการทำงานรูปแบบ Standalone AP และ Controller-based AP</t>
+  </si>
+  <si>
+    <t>สนับสนุนอุปกรณ์ไคลเอนต์ไร้สายบนมาตรฐาน IEEE802.11a,IEEE802.11b,IEEE802.11g, IEEE802.11n  และ IEEE802.11ac เป็นอย่างน้อย</t>
+  </si>
+  <si>
+    <t>รองรับการทำงานรูปแบบ SSID หรือ BSSID ได้ 8 SSID หรือดีกว่าโดยสามารถกำหนด VLAN และ Security ในแต่ละ SSID ได้</t>
+  </si>
+  <si>
+    <t>บริษัท 1</t>
+  </si>
+  <si>
+    <t>สุราษฏร์ธานี</t>
+  </si>
+  <si>
+    <t>รองรับ Power over Ethernet(PoE) ตามมาตรฐาน IEEE 802.11af แบบเต็มประสิทธิภาพ</t>
+  </si>
+  <si>
+    <t>รองรับความปลอดภัยแบบ WPA-PSK, WPA2, 802.1x, EAP-SIM และ EAP-PEAP</t>
+  </si>
+  <si>
+    <t>มี 2 Port Ethernet แบบ 10/100/1000Mbps  และเป็น Port Auto MDX</t>
+  </si>
+  <si>
+    <t>Antenna แบบภายใน กระจายสัญญาณแบบ Omni Directional หรือ รอบตัว</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สามารถรองรับ DataRate ได้ 1300 Mbps มาตรฐาน IEEE802.11ac  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mbps มาตรฐาน 802.11n หรือแบบ 3x3:3 stream หรือดีกว่า</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,30 +303,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,7 +411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,143 +623,478 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="2" spans="1:5" ht="27" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="90">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="2">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="2">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="2">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" s="2">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>